--- a/xlsx/商学院_intext.xlsx
+++ b/xlsx/商学院_intext.xlsx
@@ -15,1983 +15,1977 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="657">
   <si>
     <t>商学院</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>欧洲管理学院</t>
+  </si>
+  <si>
+    <t>政策_政策_管理_商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E9%A1%BF%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>沃顿商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>工商管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>高等教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E7%A7%91</t>
+  </si>
+  <si>
+    <t>学科</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88</t>
+  </si>
+  <si>
+    <t>统计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
+  </si>
+  <si>
+    <t>国际贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
+  </si>
+  <si>
+    <t>财政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%8B%99</t>
+  </si>
+  <si>
+    <t>税务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99</t>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
+  </si>
+  <si>
+    <t>金融</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>信息系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%95%86%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>电子商务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E8%90%A5%E9%94%80</t>
+  </si>
+  <si>
+    <t>市场营销</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>组织行为学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>公共关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>企业管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E8%90%A5</t>
+  </si>
+  <si>
+    <t>经营</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
+  </si>
+  <si>
+    <t>战略</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%96%80</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>北美</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>硕士学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
+  </si>
+  <si>
+    <t>研究生院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>副学士学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%93</t>
+  </si>
+  <si>
+    <t>大专</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>企业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E9%A0%93%E5%95%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>华顿商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>曼彻斯特城市大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%A0%E4%BC%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>圣加伦大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/PhD</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/EMBA</t>
+  </si>
+  <si>
+    <t>EMBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
+  </si>
+  <si>
+    <t>诺贝尔奖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
+  </si>
+  <si>
+    <t>乔治·斯蒂格勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91</t>
+  </si>
+  <si>
+    <t>退休</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>加州大学柏克莱分校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>达特茅斯学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>塔克商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E7%BB%8F%E6%B5%8E%E5%95%86%E4%B8%9A%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>高等经济商业学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>约翰霍普金斯大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%91%9E%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>开瑞商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>斯德哥尔摩经济学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>哈佛商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MBA</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>赫尔辛基经济学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>芬兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南京大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E4%B8%9C%E5%8D%97%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国立东南大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国立中央大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%95%86%E7%A7%91%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>上海商科大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%B4%A2%E7%BB%8F%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>上海财经大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>南京大学商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
+  </si>
+  <si>
+    <t>台湾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%8F%B0%E5%A4%8D%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>在台复校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%8B%92%E9%99%80%E5%88%A9%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>比勒陀利亚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/INSEAD</t>
+  </si>
+  <si>
+    <t>INSEAD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>伦敦商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>国立政治大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>北欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E4%BE%8B%E6%95%99%E5%AD%A6%E6%B3%95</t>
+  </si>
+  <si>
+    <t>案例教学法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E7%94%9F</t>
+  </si>
+  <si>
+    <t>大学生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F</t>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>工商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E8%80%85</t>
+  </si>
+  <si>
+    <t>竞争者</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E7%AD%B9%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>运筹学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A8%A1</t>
+  </si>
+  <si>
+    <t>建模</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%8B%9F%E6%B8%B8%E6%88%8F</t>
+  </si>
+  <si>
+    <t>模拟游戏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>商业学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>管理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%B2%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>讲座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8B%95</t>
+  </si>
+  <si>
+    <t>互动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%94%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>笔记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>作业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E5%91%A8%E5%88%8A</t>
+  </si>
+  <si>
+    <t>商业周刊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E4%B8%8E%E4%B8%96%E7%95%8C%E6%8A%A5%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国新闻与世界报道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
+  </si>
+  <si>
+    <t>财富</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>福布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%97%B6%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>金融时报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>华尔街日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>工商管理硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%84%B6</t>
+  </si>
+  <si>
+    <t>安然</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%9A%E6%B0%B0%E8%83%BA</t>
+  </si>
+  <si>
+    <t>三聚氰胺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>环境污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B2%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>公司治理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86</t>
+  </si>
+  <si>
+    <t>伦理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>社会责任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>学术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E7%94%9F</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%B0%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>称号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
+  </si>
+  <si>
+    <t>国际</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%9B%B8</t>
+  </si>
+  <si>
+    <t>证书</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%85%E4%BF%AE%E8%AF%BE</t>
+  </si>
+  <si>
+    <t>必修课</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AA</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AS</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AB</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/AAS</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>学士学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/BSc</t>
+  </si>
+  <si>
+    <t>BSc</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>管理硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BC%81%E6%A5%AD%E7%A2%A9%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>国际企业硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>商学硕士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MM</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MMR</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>博士学位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Ph.D.</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/DM</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E8%81%94%E7%9B%9F%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>常春藤联盟商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%AD%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国商学院列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%95%86%E5%AD%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>亚太商学院列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BC%81%E4%B8%9A%E7%A1%95%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%9D%B1%E4%BA%9EAACSB%E8%AA%8D%E8%AD%89%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>Template talk-东亚AACSB认证大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%95%86%E7%AE%A1%E5%AD%B8%E9%99%A2%E4%BF%83%E9%80%B2%E5%8D%94%E6%9C%83</t>
+  </si>
+  <si>
+    <t>国际商管学院促进协会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6%E7%BB%8F%E6%B5%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>清华大学经济管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E4%B8%AD%E6%AC%A7%E5%9B%BD%E9%99%85%E5%B7%A5%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>上海交通大学中欧国际工商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%97%A6%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>复旦大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E5%AE%89%E6%B3%B0%E7%BB%8F%E6%B5%8E%E4%B8%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>上海交通大学安泰经济与管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AE%89%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>西安交通大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%85%89%E5%8D%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>北京大学光华管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中山大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%BF%9E%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大连理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6%E5%B2%AD%E5%8D%97%EF%BC%88%E5%A4%A7%E5%AD%A6%EF%BC%89%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>中山大学岭南（大学）学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E6%B1%9F%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>浙江大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%A4%E5%88%A9%E7%89%A9%E6%B5%A6%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>西交利物浦大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E7%BB%8F%E6%B5%8E%E8%B4%B8%E6%98%93%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>对外经济贸易大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%BC%80%E5%A4%A7%E5%AD%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>南开大学商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%B5%8E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>同济大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港中文大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港城市大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港浸会大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8%E5%95%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>香港科技大学商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B6%BA%E5%8D%97%E5%A4%A7%E5%AD%B8_(%E9%A6%99%E6%B8%AF)</t>
+  </si>
+  <si>
+    <t>岭南大学 (香港)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>香港大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E6%87%89%E7%BE%A9%E5%A1%BE%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>庆应义塾大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%95%86%E7%A7%91%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>名古屋商科大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E5%91%BD%E9%A6%86%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>立命馆亚洲太平洋大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>韩国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>首尔大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>高丽大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%AE%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>世宗大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%9D%87%E9%A6%86%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>成均馆大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E9%99%A2</t>
+  </si>
+  <si>
+    <t>韩国科学技术院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E4%B8%96%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>延世大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B1%9F%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>西江大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%99%BD%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>汉阳大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%A8%E8%8A%B1%E5%A5%B3%E5%AD%90%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>梨花女子大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%AE%A1%E7%90%86%E7%A0%94%E7%A9%B6%E6%89%80</t>
+  </si>
+  <si>
+    <t>亚洲管理研究所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%9B%BD%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>新加坡国立大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南洋理工大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%AE%A1%E7%90%86%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>新加坡管理大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E4%BB%81%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>辅仁大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立中山大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8%E5%95%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立政治大学商学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%B8%85%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立清华大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立交通大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立台湾大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%88%90%E5%8A%9F%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立成功大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%99%BA%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>元智大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
+  </si>
+  <si>
+    <t>国立台湾科技大学管理学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%A2%E7%94%B2%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>逢甲大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E9%9B%B2%E6%9E%97%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立云林科技大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>中原大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>国立台北大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>中华大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%BA%9A%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>长庚大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%90%B3%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>东吴大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>亚洲大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%87%BA%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>南台科技大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E6%8B%89%E9%9A%86%E5%8A%9F%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>朱拉隆功大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%B9%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>博特拉大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Outline_of_business_management</t>
+  </si>
+  <si>
+    <t>en-Outline of business management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Index_of_management_articles</t>
+  </si>
+  <si>
+    <t>en-Index of management articles</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Academic_administration</t>
+  </si>
+  <si>
+    <t>en-Academic administration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Association_management</t>
+  </si>
+  <si>
+    <t>en-Association management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>企业经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Restaurant_management</t>
+  </si>
+  <si>
+    <t>en-Restaurant management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Health_administration</t>
+  </si>
+  <si>
+    <t>en-Health administration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_administration</t>
+  </si>
+  <si>
+    <t>en-Military administration</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>公共行政学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Capability_management</t>
+  </si>
+  <si>
+    <t>en-Capability management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>应变管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Communications_management</t>
+  </si>
+  <si>
+    <t>en-Communications management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>财务管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Innovation_management</t>
+  </si>
+  <si>
+    <t>en-Innovation management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>绩效管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>风险管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Systems_management</t>
+  </si>
+  <si>
+    <t>en-Systems management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%BE%E6%96%BD%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>设施管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Product_management</t>
+  </si>
+  <si>
+    <t>en-Product management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81%E7%94%9F%E5%91%BD%E5%91%A8%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>产品生命周期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>品牌管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Program_management</t>
+  </si>
+  <si>
+    <t>en-Program management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A1%B9%E7%9B%AE%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>营建管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Line_management</t>
+  </si>
+  <si>
+    <t>en-Line management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>行销管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Operations_management</t>
+  </si>
+  <si>
+    <t>en-Operations management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Manufacturing_process_management</t>
+  </si>
+  <si>
+    <t>en-Manufacturing process management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Process_management</t>
+  </si>
+  <si>
+    <t>en-Process management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>品质管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sales_management</t>
+  </si>
+  <si>
+    <t>en-Sales management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Staff_management</t>
+  </si>
+  <si>
+    <t>en-Staff management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Accounting_management</t>
+  </si>
+  <si>
+    <t>en-Accounting management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Office_management</t>
+  </si>
+  <si>
+    <t>en-Office management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Records_management</t>
+  </si>
+  <si>
+    <t>en-Records management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E6%88%B7%E5%85%B3%E7%B3%BB%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>客户关系管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Engineering_management</t>
+  </si>
+  <si>
+    <t>Engineering management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Perception_management</t>
+  </si>
+  <si>
+    <t>en-Perception management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E5%BA%94%E9%93%BE%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>供应链管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Talent_management</t>
+  </si>
+  <si>
+    <t>en-Talent management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conflict_management</t>
+  </si>
+  <si>
+    <t>en-Conflict management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>危机管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>压力管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Resource_management</t>
+  </si>
+  <si>
+    <t>en-Resource management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>环境资源管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>信息管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>资讯科技管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>知识管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>土地管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Materials_management</t>
+  </si>
+  <si>
+    <t>en-Materials management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Skills_management</t>
+  </si>
+  <si>
+    <t>en-Skills management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stock_management</t>
+  </si>
+  <si>
+    <t>en-Stock management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Technology_management</t>
+  </si>
+  <si>
+    <t>en-Technology management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>时间管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
+  </si>
+  <si>
+    <t>专家派遣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>干部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
+  </si>
+  <si>
+    <t>高阶管理人员</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
+  </si>
+  <si>
+    <t>en-Adhocracy</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Collaborative_method</t>
+  </si>
+  <si>
+    <t>en-Collaborative method</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Distributed_management</t>
+  </si>
+  <si>
+    <t>en-Distributed management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%A3%E5%80%BC%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>挣值管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Evidence-based_management</t>
+  </si>
+  <si>
+    <t>en-Evidence-based management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>目标管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>管理风格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>宏观管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>微观管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>科学管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A%E5%88%9B%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>公益创业</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Team_building</t>
+  </si>
+  <si>
+    <t>en-Team building</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Virtual_management</t>
+  </si>
+  <si>
+    <t>en-Virtual management</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
+  </si>
+  <si>
+    <t>决断</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
+  </si>
+  <si>
+    <t>决策</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Forecasting</t>
+  </si>
+  <si>
+    <t>en-Forecasting</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>领导力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
+  </si>
+  <si>
+    <t>彼得·德鲁克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
+  </si>
+  <si>
+    <t>伊利雅胡·高德拉特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>奥利弗·威廉姆森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>工商管理学学士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
+  </si>
+  <si>
+    <t>en-PhD in management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Organizational_studies</t>
+  </si>
+  <si>
+    <t>en-Organizational studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Certified_Business_Manager</t>
+  </si>
+  <si>
+    <t>en-Certified Business Manager</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chartered_Management_Institute</t>
+  </si>
+  <si>
+    <t>en-Chartered Management Institute</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Critical_management_studies</t>
+  </si>
+  <si>
+    <t>en-Critical management studies</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Association_of_Technology,_Management,_and_Applied_Engineering</t>
+  </si>
+  <si>
+    <t>en-Association of Technology, Management, and Applied Engineering</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%BF%83%E7%90%86%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>管理心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%92%A8%E8%AF%A2</t>
+  </si>
+  <si>
+    <t>管理咨询</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>管理主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>组织发展理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>合作</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Control_(management)</t>
+  </si>
+  <si>
+    <t>en-Control (management)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Management_development</t>
+  </si>
+  <si>
+    <t>en-Management development</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Management_system</t>
+  </si>
+  <si>
+    <t>en-Management system</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
+  </si>
+  <si>
+    <t>en-Managerial economics</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Management_cybernetics</t>
+  </si>
+  <si>
+    <t>en-Management cybernetics</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Organizational_behavior_management</t>
+  </si>
+  <si>
+    <t>en-Organizational behavior management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Management_fad</t>
+  </si>
+  <si>
+    <t>en-Management fad</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pointy-haired_Boss</t>
+  </si>
+  <si>
+    <t>en-Pointy-haired Boss</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Executive_compensation</t>
+  </si>
+  <si>
+    <t>en-Executive compensation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Williamson%27s_model_of_managerial_discretion</t>
+  </si>
+  <si>
+    <t>en-Williamson's model of managerial discretion</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>欧洲管理学院</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E9%A1%BF%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>沃顿商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>工商管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>学位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>高等教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E7%A7%91</t>
-  </si>
-  <si>
-    <t>学科</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%A1</t>
-  </si>
-  <si>
-    <t>会计</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88</t>
-  </si>
-  <si>
-    <t>統計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
-  </si>
-  <si>
-    <t>国际贸易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
-  </si>
-  <si>
-    <t>财政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%8B%99</t>
-  </si>
-  <si>
-    <t>稅務</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99</t>
-  </si>
-  <si>
-    <t>財務</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
-  </si>
-  <si>
-    <t>金融</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>信息系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%95%86%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>电子商务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E8%90%A5%E9%94%80</t>
-  </si>
-  <si>
-    <t>市场营销</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87%E8%A1%8C%E4%B8%BA%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>组织行为学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>公共关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>企业管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E8%90%A5</t>
-  </si>
-  <si>
-    <t>经营</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
-  </si>
-  <si>
-    <t>战略</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>人力资源管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%96%80</t>
-  </si>
-  <si>
-    <t>部門</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>北美</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>硕士学位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F%E9%99%A2</t>
-  </si>
-  <si>
-    <t>研究生院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>副學士學位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%93</t>
-  </si>
-  <si>
-    <t>大专</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E9%A0%93%E5%95%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>華頓商學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>曼徹斯特城市大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%A0%E4%BC%A6%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>圣加伦大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/PhD</t>
-  </si>
-  <si>
-    <t>PhD</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/EMBA</t>
-  </si>
-  <si>
-    <t>EMBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A5%96</t>
-  </si>
-  <si>
-    <t>诺贝尔奖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
-  </si>
-  <si>
-    <t>喬治·斯蒂格勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91</t>
-  </si>
-  <si>
-    <t>退休</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>加州大學柏克萊分校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公立大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>达特茅斯学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>塔克商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>硕士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E7%BB%8F%E6%B5%8E%E5%95%86%E4%B8%9A%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>高等经济商业学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%9C%8D%E6%99%AE%E9%87%91%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>約翰霍普金斯大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%91%9E%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>开瑞商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>斯德哥尔摩经济学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>哈佛商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MBA</t>
-  </si>
-  <si>
-    <t>MBA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA%E7%BB%8F%E6%B5%8E%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>赫尔辛基经济学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南京大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E4%B8%9C%E5%8D%97%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国立东南大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国立中央大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
-  </si>
-  <si>
-    <t>南京</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>上海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%95%86%E7%A7%91%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>上海商科大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%B4%A2%E7%BB%8F%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>上海财经大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>南京大学商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B9%BE</t>
-  </si>
-  <si>
-    <t>台湾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A8%E5%8F%B0%E5%A4%8D%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>在台复校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%8B%92%E9%99%80%E5%88%A9%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>比勒陀利亞大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/INSEAD</t>
-  </si>
-  <si>
-    <t>INSEAD</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>伦敦商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
-  </si>
-  <si>
-    <t>臺灣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>国立政治大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%96%87</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>北欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A1%88%E4%BE%8B%E6%95%99%E5%AD%A6%E6%B3%95</t>
-  </si>
-  <si>
-    <t>案例教学法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E7%94%9F</t>
-  </si>
-  <si>
-    <t>大學生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F</t>
-  </si>
-  <si>
-    <t>研究生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>工商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>市场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E8%80%85</t>
-  </si>
-  <si>
-    <t>競爭者</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E7%AD%B9%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>运筹学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>统计学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%A8%A1</t>
-  </si>
-  <si>
-    <t>建模</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%8B%9F%E6%B8%B8%E6%88%8F</t>
-  </si>
-  <si>
-    <t>模拟游戏</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>商业学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>管理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%B2%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>讲座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8B%95</t>
-  </si>
-  <si>
-    <t>互動</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%94%E8%AE%B0</t>
-  </si>
-  <si>
-    <t>笔记</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>作业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%B8%9A%E5%91%A8%E5%88%8A</t>
-  </si>
-  <si>
-    <t>商业周刊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%B0%E9%97%BB%E4%B8%8E%E4%B8%96%E7%95%8C%E6%8A%A5%E9%81%93</t>
-  </si>
-  <si>
-    <t>美国新闻与世界报道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%AF%8C</t>
-  </si>
-  <si>
-    <t>财富</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>福布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%97%B6%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>金融时报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>华尔街日报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>工商管理硕士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%84%B6</t>
-  </si>
-  <si>
-    <t>安然</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%81%9A%E6%B0%B0%E8%83%BA</t>
-  </si>
-  <si>
-    <t>三聚氰胺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>环境污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E6%B2%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>公司治理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E7%90%86</t>
-  </si>
-  <si>
-    <t>伦理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>社會責任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>專業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86</t>
-  </si>
-  <si>
-    <t>知识</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>学术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E7%94%9F</t>
-  </si>
-  <si>
-    <t>学生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%B0%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>称号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85</t>
-  </si>
-  <si>
-    <t>国际</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%9B%B8</t>
-  </si>
-  <si>
-    <t>證書</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%85%E4%BF%AE%E8%AF%BE</t>
-  </si>
-  <si>
-    <t>必修课</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
-  </si>
-  <si>
-    <t>物流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AA</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AS</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AB</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/AAS</t>
-  </si>
-  <si>
-    <t>AAS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>學士學位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/BSc</t>
-  </si>
-  <si>
-    <t>BSc</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>管理硕士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BC%81%E6%A5%AD%E7%A2%A9%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>國際企業碩士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>商學碩士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MM</t>
-  </si>
-  <si>
-    <t>MM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MMR</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>博士学位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Ph.D.</t>
-  </si>
-  <si>
-    <t>Ph.D.</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/DM</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E8%81%94%E7%9B%9F%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>常春藤联盟商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%AD%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国商学院列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%95%86%E5%AD%A6%E9%99%A2%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>亚太商学院列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%BC%81%E4%B8%9A%E7%A1%95%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>国际企业硕士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%9D%B1%E4%BA%9EAACSB%E8%AA%8D%E8%AD%89%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>Template talk-東亞AACSB認證大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%95%86%E7%AE%A1%E5%AD%B8%E9%99%A2%E4%BF%83%E9%80%B2%E5%8D%94%E6%9C%83</t>
-  </si>
-  <si>
-    <t>國際商管學院促進協會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6%E7%BB%8F%E6%B5%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>清华大学经济管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E4%B8%AD%E6%AC%A7%E5%9B%BD%E9%99%85%E5%B7%A5%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>上海交通大学中欧国际工商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%97%A6%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>复旦大学管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E5%AE%89%E6%B3%B0%E7%BB%8F%E6%B5%8E%E4%B8%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>上海交通大学安泰经济与管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AE%89%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>西安交通大学管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%85%89%E5%8D%8E%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>北京大学光华管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中国人民大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中山大学管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%BF%9E%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大连理工大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%A6%E5%B2%AD%E5%8D%97%EF%BC%88%E5%A4%A7%E5%AD%A6%EF%BC%89%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>中山大学岭南（大学）学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>中国科学技术大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E6%B1%9F%E5%A4%A7%E5%AD%A6%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>浙江大学管理学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%A4%E5%88%A9%E7%89%A9%E6%B5%A6%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>西交利物浦大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E7%BB%8F%E6%B5%8E%E8%B4%B8%E6%98%93%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>对外经济贸易大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%BC%80%E5%A4%A7%E5%AD%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>南开大学商学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%B5%8E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>同济大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港中文大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9F%8E%E5%B8%82%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港城市大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港浸會大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港理工大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8%E5%95%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>香港科技大學商學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B6%BA%E5%8D%97%E5%A4%A7%E5%AD%B8_(%E9%A6%99%E6%B8%AF)</t>
-  </si>
-  <si>
-    <t>嶺南大學 (香港)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>香港大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E6%87%89%E7%BE%A9%E5%A1%BE%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>慶應義塾大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%8F%A4%E5%B1%8B%E5%95%86%E7%A7%91%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>名古屋商科大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E5%91%BD%E9%A6%86%E4%BA%9A%E6%B4%B2%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>立命馆亚洲太平洋大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>韓國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>首爾大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%BA%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>高麗大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E5%AE%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>世宗大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%9D%87%E9%A6%86%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>成均馆大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E9%99%A2</t>
-  </si>
-  <si>
-    <t>韩国科学技术院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E4%B8%96%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>延世大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%B1%9F%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>西江大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E9%99%BD%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>漢陽大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%A8%E8%8A%B1%E5%A5%B3%E5%AD%90%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>梨花女子大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E7%AE%A1%E7%90%86%E7%A0%94%E7%A9%B6%E6%89%80</t>
-  </si>
-  <si>
-    <t>亞洲管理研究所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%9B%BD%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>新加坡国立大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B4%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南洋理工大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E7%AE%A1%E7%90%86%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>新加坡管理大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E4%BB%81%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>輔仁大學管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%B1%B1%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立中山大學管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8%E5%95%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立政治大學商學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%B8%85%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立清華大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%BA%A4%E9%80%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立交通大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立臺灣大學管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%88%90%E5%8A%9F%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立成功大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%83%E6%99%BA%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>元智大學管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
-  </si>
-  <si>
-    <t>國立臺灣科技大學管理學院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%A2%E7%94%B2%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>逢甲大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E9%9B%B2%E6%9E%97%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立雲林科技大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E5%A4%AE%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立中央大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>中原大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>國立臺北大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>中華大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%BA%9A%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>長庚大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%90%B3%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>東吳大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>亞洲大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%87%BA%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>南臺科技大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>泰國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E6%8B%89%E9%9A%86%E5%8A%9F%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>朱拉隆功大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%B9%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>博特拉大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Outline_of_business_management</t>
-  </si>
-  <si>
-    <t>en-Outline of business management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Index_of_management_articles</t>
-  </si>
-  <si>
-    <t>en-Index of management articles</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Academic_administration</t>
-  </si>
-  <si>
-    <t>en-Academic administration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Association_management</t>
-  </si>
-  <si>
-    <t>en-Association management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>企业经济学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Restaurant_management</t>
-  </si>
-  <si>
-    <t>en-Restaurant management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Health_administration</t>
-  </si>
-  <si>
-    <t>en-Health administration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_administration</t>
-  </si>
-  <si>
-    <t>en-Military administration</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>公共行政學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Capability_management</t>
-  </si>
-  <si>
-    <t>en-Capability management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>應變管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Communications_management</t>
-  </si>
-  <si>
-    <t>en-Communications management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E5%8A%A1%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>财务管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Innovation_management</t>
-  </si>
-  <si>
-    <t>en-Innovation management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>績效管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>风险管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Systems_management</t>
-  </si>
-  <si>
-    <t>en-Systems management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%BE%E6%96%BD%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>设施管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Product_management</t>
-  </si>
-  <si>
-    <t>en-Product management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81%E7%94%9F%E5%91%BD%E5%91%A8%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>产品生命周期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>品牌管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Program_management</t>
-  </si>
-  <si>
-    <t>en-Program management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A1%B9%E7%9B%AE%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>项目管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>營建管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Line_management</t>
-  </si>
-  <si>
-    <t>en-Line management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>行銷管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Operations_management</t>
-  </si>
-  <si>
-    <t>en-Operations management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Manufacturing_process_management</t>
-  </si>
-  <si>
-    <t>en-Manufacturing process management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Process_management</t>
-  </si>
-  <si>
-    <t>en-Process management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>品質管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sales_management</t>
-  </si>
-  <si>
-    <t>en-Sales management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Staff_management</t>
-  </si>
-  <si>
-    <t>en-Staff management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Accounting_management</t>
-  </si>
-  <si>
-    <t>en-Accounting management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Office_management</t>
-  </si>
-  <si>
-    <t>en-Office management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Records_management</t>
-  </si>
-  <si>
-    <t>en-Records management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E6%88%B7%E5%85%B3%E7%B3%BB%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>客户关系管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Engineering_management</t>
-  </si>
-  <si>
-    <t>Engineering management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Perception_management</t>
-  </si>
-  <si>
-    <t>en-Perception management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E5%BA%94%E9%93%BE%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>供应链管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Talent_management</t>
-  </si>
-  <si>
-    <t>en-Talent management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conflict_management</t>
-  </si>
-  <si>
-    <t>en-Conflict management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>危機管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>壓力管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Resource_management</t>
-  </si>
-  <si>
-    <t>en-Resource management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>環境資源管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>信息管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>資訊科技管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>知识管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%9C%B0%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>土地管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Materials_management</t>
-  </si>
-  <si>
-    <t>en-Materials management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Skills_management</t>
-  </si>
-  <si>
-    <t>en-Skills management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stock_management</t>
-  </si>
-  <si>
-    <t>en-Stock management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Technology_management</t>
-  </si>
-  <si>
-    <t>en-Technology management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>时间管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
-  </si>
-  <si>
-    <t>專家派遣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>干部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
-  </si>
-  <si>
-    <t>高階管理人員</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Adhocracy</t>
-  </si>
-  <si>
-    <t>en-Adhocracy</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Collaborative_method</t>
-  </si>
-  <si>
-    <t>en-Collaborative method</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Distributed_management</t>
-  </si>
-  <si>
-    <t>en-Distributed management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%A3%E5%80%BC%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>挣值管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Evidence-based_management</t>
-  </si>
-  <si>
-    <t>en-Evidence-based management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>目標管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>管理風格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>宏觀管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>微觀管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>科学管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9B%8A%E5%88%9B%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>公益创业</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Team_building</t>
-  </si>
-  <si>
-    <t>en-Team building</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Virtual_management</t>
-  </si>
-  <si>
-    <t>en-Virtual management</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
-  </si>
-  <si>
-    <t>決斷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
-  </si>
-  <si>
-    <t>决策</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Forecasting</t>
-  </si>
-  <si>
-    <t>en-Forecasting</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>領導力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
-  </si>
-  <si>
-    <t>彼得·德鲁克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%9B%85%E8%83%A1%C2%B7%E9%AB%98%E5%BE%B7%E6%8B%89%E7%89%B9</t>
-  </si>
-  <si>
-    <t>伊利雅胡·高德拉特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>奥利弗·威廉姆森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>工商管理學學士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>工商管理碩士</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
-  </si>
-  <si>
-    <t>en-PhD in management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Organizational_studies</t>
-  </si>
-  <si>
-    <t>en-Organizational studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Certified_Business_Manager</t>
-  </si>
-  <si>
-    <t>en-Certified Business Manager</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chartered_Management_Institute</t>
-  </si>
-  <si>
-    <t>en-Chartered Management Institute</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Critical_management_studies</t>
-  </si>
-  <si>
-    <t>en-Critical management studies</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Association_of_Technology,_Management,_and_Applied_Engineering</t>
-  </si>
-  <si>
-    <t>en-Association of Technology, Management, and Applied Engineering</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%BF%83%E7%90%86%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>管理心理学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%92%A8%E8%AF%A2</t>
-  </si>
-  <si>
-    <t>管理咨询</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>管理主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>組織發展理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>合作</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Control_(management)</t>
-  </si>
-  <si>
-    <t>en-Control (management)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Management_development</t>
-  </si>
-  <si>
-    <t>en-Management development</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Management_system</t>
-  </si>
-  <si>
-    <t>en-Management system</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
-  </si>
-  <si>
-    <t>en-Managerial economics</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Management_cybernetics</t>
-  </si>
-  <si>
-    <t>en-Management cybernetics</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Organizational_behavior_management</t>
-  </si>
-  <si>
-    <t>en-Organizational behavior management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Management_fad</t>
-  </si>
-  <si>
-    <t>en-Management fad</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pointy-haired_Boss</t>
-  </si>
-  <si>
-    <t>en-Pointy-haired Boss</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Executive_compensation</t>
-  </si>
-  <si>
-    <t>en-Executive compensation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Williamson%27s_model_of_managerial_discretion</t>
-  </si>
-  <si>
-    <t>en-Williamson's model of managerial discretion</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2340,7 +2334,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4798,7 +4792,7 @@
         <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="G85" t="n">
         <v>4</v>
@@ -4824,10 +4818,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4853,10 +4847,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -4882,10 +4876,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4911,10 +4905,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4969,10 +4963,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" t="s">
         <v>177</v>
-      </c>
-      <c r="F91" t="s">
-        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4998,10 +4992,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>178</v>
+      </c>
+      <c r="F92" t="s">
         <v>179</v>
-      </c>
-      <c r="F92" t="s">
-        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5027,10 +5021,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5056,10 +5050,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5085,10 +5079,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>20</v>
@@ -5114,10 +5108,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5143,10 +5137,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>5</v>
@@ -5172,10 +5166,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5201,10 +5195,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5230,10 +5224,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5259,10 +5253,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>4</v>
@@ -5288,10 +5282,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5317,10 +5311,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>5</v>
@@ -5346,10 +5340,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5404,10 +5398,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5433,10 +5427,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5462,10 +5456,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5491,10 +5485,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5520,10 +5514,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5549,10 +5543,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -5578,10 +5572,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>24</v>
@@ -5607,10 +5601,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5636,10 +5630,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5665,10 +5659,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5694,10 +5688,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5723,10 +5717,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5752,10 +5746,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5781,10 +5775,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5810,10 +5804,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5839,10 +5833,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5868,10 +5862,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5897,10 +5891,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -5926,10 +5920,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5955,10 +5949,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5984,10 +5978,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6013,10 +6007,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6042,10 +6036,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6071,10 +6065,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6100,10 +6094,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6129,10 +6123,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6158,10 +6152,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -6187,10 +6181,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -6216,10 +6210,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6245,10 +6239,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>6</v>
@@ -6274,10 +6268,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6303,10 +6297,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -6332,10 +6326,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6361,10 +6355,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6390,10 +6384,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6419,13 +6413,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
       </c>
-      <c r="F141" t="s">
-        <v>276</v>
-      </c>
       <c r="G141" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6448,10 +6442,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6477,10 +6471,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6506,10 +6500,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6535,10 +6529,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>4</v>
@@ -6564,10 +6558,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6593,10 +6587,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6622,10 +6616,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6651,10 +6645,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6680,10 +6674,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>290</v>
+      </c>
+      <c r="F150" t="s">
         <v>291</v>
-      </c>
-      <c r="F150" t="s">
-        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6709,10 +6703,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6738,10 +6732,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6767,10 +6761,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
-      </c>
-      <c r="F153" t="s">
-        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6796,10 +6790,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>290</v>
+      </c>
+      <c r="F154" t="s">
         <v>291</v>
-      </c>
-      <c r="F154" t="s">
-        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6825,10 +6819,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" t="s">
         <v>295</v>
-      </c>
-      <c r="F155" t="s">
-        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6854,10 +6848,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" t="s">
         <v>297</v>
-      </c>
-      <c r="F156" t="s">
-        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6883,10 +6877,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>298</v>
+      </c>
+      <c r="F157" t="s">
         <v>299</v>
-      </c>
-      <c r="F157" t="s">
-        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6912,10 +6906,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>300</v>
+      </c>
+      <c r="F158" t="s">
         <v>301</v>
-      </c>
-      <c r="F158" t="s">
-        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6941,10 +6935,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" t="s">
         <v>303</v>
-      </c>
-      <c r="F159" t="s">
-        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6970,10 +6964,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>304</v>
+      </c>
+      <c r="F160" t="s">
         <v>305</v>
-      </c>
-      <c r="F160" t="s">
-        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6999,10 +6993,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>306</v>
+      </c>
+      <c r="F161" t="s">
         <v>307</v>
-      </c>
-      <c r="F161" t="s">
-        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7028,10 +7022,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>308</v>
+      </c>
+      <c r="F162" t="s">
         <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7057,10 +7051,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
         <v>287</v>
-      </c>
-      <c r="F163" t="s">
-        <v>288</v>
       </c>
       <c r="G163" t="n">
         <v>7</v>
@@ -7086,10 +7080,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>290</v>
+      </c>
+      <c r="F164" t="s">
         <v>291</v>
-      </c>
-      <c r="F164" t="s">
-        <v>292</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7115,10 +7109,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7144,10 +7138,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -7173,10 +7167,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -7202,10 +7196,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7231,10 +7225,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7260,10 +7254,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7289,10 +7283,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F171" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7318,10 +7312,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7347,10 +7341,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7376,10 +7370,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7405,10 +7399,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7463,10 +7457,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7492,10 +7486,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7521,10 +7515,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7550,10 +7544,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7579,10 +7573,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7608,10 +7602,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7637,10 +7631,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7666,10 +7660,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7695,10 +7689,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7724,10 +7718,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>8</v>
@@ -7753,10 +7747,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7782,10 +7776,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7811,10 +7805,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7840,10 +7834,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7869,10 +7863,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7898,10 +7892,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7927,10 +7921,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7956,10 +7950,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7985,10 +7979,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8014,10 +8008,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8043,10 +8037,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8072,10 +8066,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8101,10 +8095,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8130,10 +8124,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8159,10 +8153,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8188,10 +8182,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8217,10 +8211,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8246,10 +8240,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8275,10 +8269,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8304,10 +8298,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8333,10 +8327,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8362,10 +8356,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8391,10 +8385,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8420,10 +8414,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8449,10 +8443,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8478,10 +8472,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8507,10 +8501,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8536,10 +8530,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8565,10 +8559,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8594,10 +8588,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8623,10 +8617,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8652,10 +8646,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8681,10 +8675,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8710,10 +8704,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8739,10 +8733,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8768,10 +8762,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8797,10 +8791,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8826,10 +8820,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8855,10 +8849,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8884,10 +8878,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>138</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8913,10 +8907,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8942,10 +8936,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8971,10 +8965,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9000,10 +8994,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9029,10 +9023,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9058,10 +9052,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9087,10 +9081,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9116,10 +9110,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>175</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9145,10 +9139,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9174,10 +9168,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9203,10 +9197,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9232,10 +9226,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9261,10 +9255,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9290,10 +9284,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9319,10 +9313,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9348,10 +9342,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9377,10 +9371,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9406,10 +9400,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9435,10 +9429,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9464,10 +9458,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9493,10 +9487,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9522,10 +9516,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9551,10 +9545,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9580,10 +9574,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9609,10 +9603,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9638,10 +9632,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9667,10 +9661,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9696,10 +9690,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9725,10 +9719,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9754,10 +9748,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9783,10 +9777,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9812,10 +9806,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9841,10 +9835,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9870,10 +9864,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9899,10 +9893,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9928,10 +9922,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9957,10 +9951,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9986,10 +9980,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10015,10 +10009,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10044,10 +10038,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10073,10 +10067,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10102,10 +10096,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10131,10 +10125,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10160,10 +10154,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10189,10 +10183,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10218,10 +10212,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10247,10 +10241,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10276,10 +10270,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>3</v>
@@ -10305,10 +10299,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10334,10 +10328,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10363,10 +10357,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10392,10 +10386,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10421,10 +10415,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10450,10 +10444,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10479,10 +10473,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10508,10 +10502,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10566,10 +10560,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10595,10 +10589,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10624,10 +10618,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10653,10 +10647,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10682,10 +10676,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10711,10 +10705,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10740,10 +10734,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10769,10 +10763,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10798,10 +10792,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10827,10 +10821,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10856,10 +10850,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10885,10 +10879,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -10914,10 +10908,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10943,10 +10937,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10972,10 +10966,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11001,10 +10995,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11030,10 +11024,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11059,10 +11053,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11088,10 +11082,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11117,10 +11111,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11146,10 +11140,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11175,10 +11169,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -11204,10 +11198,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11233,10 +11227,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11262,10 +11256,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11291,10 +11285,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F309" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11320,10 +11314,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F310" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>2</v>
@@ -11349,10 +11343,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F311" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11378,10 +11372,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F312" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11407,10 +11401,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11436,10 +11430,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F314" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11465,10 +11459,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F315" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11494,10 +11488,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F316" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11523,10 +11517,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F317" t="s">
-        <v>610</v>
+        <v>239</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11552,10 +11546,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11581,10 +11575,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11610,10 +11604,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11639,10 +11633,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11668,10 +11662,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11697,10 +11691,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11726,10 +11720,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F324" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11755,10 +11749,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11784,10 +11778,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11813,10 +11807,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11842,10 +11836,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11871,10 +11865,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G329" t="n">
         <v>4</v>
@@ -11900,10 +11894,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -11929,10 +11923,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11958,10 +11952,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11987,10 +11981,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12016,10 +12010,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12045,10 +12039,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12074,10 +12068,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12103,10 +12097,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12132,10 +12126,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12161,10 +12155,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12190,10 +12184,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12219,10 +12213,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12248,10 +12242,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12260,6 +12254,64 @@
         <v>4</v>
       </c>
       <c r="I342" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1</v>
+      </c>
+      <c r="D343" t="n">
+        <v>342</v>
+      </c>
+      <c r="E343" t="s">
+        <v>654</v>
+      </c>
+      <c r="F343" t="s">
+        <v>655</v>
+      </c>
+      <c r="G343" t="n">
+        <v>9</v>
+      </c>
+      <c r="H343" t="s">
+        <v>4</v>
+      </c>
+      <c r="I343" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1</v>
+      </c>
+      <c r="D344" t="n">
+        <v>343</v>
+      </c>
+      <c r="E344" t="s">
+        <v>654</v>
+      </c>
+      <c r="F344" t="s">
+        <v>656</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1</v>
+      </c>
+      <c r="H344" t="s">
+        <v>4</v>
+      </c>
+      <c r="I344" t="n">
         <v>3</v>
       </c>
     </row>
